--- a/RD files/公共参数.xlsx
+++ b/RD files/公共参数.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\working\CTP数据接收系统及数据管理（穿）\RD files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\working\CTP数据接收系统及数据管理（穿）mongo\RD files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="426">
   <si>
     <t>数据库名称</t>
   </si>
@@ -10033,10 +10033,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10075,963 +10075,27 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E2" s="3">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F2" s="3">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="E3" s="3">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3">
-        <v>2</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E4" s="3">
-        <v>100</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="E5" s="3">
-        <v>20</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="E6" s="3">
-        <v>5</v>
-      </c>
-      <c r="F6" s="3">
-        <v>5</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E7" s="3">
-        <v>10</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="E8" s="3">
-        <v>5</v>
-      </c>
-      <c r="F8" s="3">
-        <v>5</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E9" s="3">
-        <v>10</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E10" s="3">
-        <v>10</v>
-      </c>
-      <c r="F10" s="3">
-        <v>5</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="E11" s="3">
-        <v>5</v>
-      </c>
-      <c r="F11" s="3">
-        <v>10</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="E12" s="3">
-        <v>5</v>
-      </c>
-      <c r="F12" s="3">
-        <v>5</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="E13" s="3">
-        <v>10</v>
-      </c>
-      <c r="F13" s="3">
-        <v>2</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E14" s="3">
-        <v>10</v>
-      </c>
-      <c r="F14" s="3">
-        <v>2</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="E15" s="3">
-        <v>10</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E16" s="3">
-        <v>60</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E17" s="3">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3">
-        <v>5</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E18" s="3">
-        <v>10</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E19" s="3">
-        <v>10</v>
-      </c>
-      <c r="F19" s="3">
-        <v>2</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3">
-        <v>10</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="E21" s="3">
-        <v>5</v>
-      </c>
-      <c r="F21" s="3">
-        <v>5</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E22" s="3">
-        <v>10</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E23" s="3">
-        <v>10</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1</v>
-      </c>
-      <c r="F24" s="3">
-        <v>10</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
-        <v>24</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="E25" s="3">
-        <v>10</v>
-      </c>
-      <c r="F25" s="3">
-        <v>1</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
-        <v>25</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="E26" s="3">
-        <v>20</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
-        <v>26</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="E27" s="3">
-        <v>100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
-        <v>27</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="E28" s="3">
-        <v>10</v>
-      </c>
-      <c r="F28" s="3">
-        <v>1</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
-        <v>28</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E29" s="3">
-        <v>10</v>
-      </c>
-      <c r="F29" s="3">
-        <v>2</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="3">
-        <v>29</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="E30" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F30" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="3">
-        <v>30</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="E31" s="3">
-        <v>15</v>
-      </c>
-      <c r="F31" s="3">
-        <v>1</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="3">
-        <v>31</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E32" s="3">
-        <v>10000</v>
-      </c>
-      <c r="F32" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="3">
-        <v>32</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E33" s="3">
-        <v>10000</v>
-      </c>
-      <c r="F33" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="3">
-        <v>33</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E34" s="3">
-        <v>5</v>
-      </c>
-      <c r="F34" s="3">
-        <v>5</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="3">
-        <v>34</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E35" s="3">
-        <v>5</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="3">
-        <v>35</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E36" s="3">
-        <v>10</v>
-      </c>
-      <c r="F36" s="3">
-        <v>1</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="3">
-        <v>36</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="E37" s="3">
-        <v>10</v>
-      </c>
-      <c r="F37" s="3">
-        <v>1</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="3">
-        <v>37</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="E38" s="3">
-        <v>5</v>
-      </c>
-      <c r="F38" s="3">
-        <v>2</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="H38" s="3" t="s">
         <v>366</v>
       </c>
     </row>
@@ -11046,8 +10110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/RD files/公共参数.xlsx
+++ b/RD files/公共参数.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="426">
   <si>
     <t>数据库名称</t>
   </si>
@@ -10033,10 +10033,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10075,27 +10075,963 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E2" s="3">
+        <v>100</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E3" s="3">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E4" s="3">
+        <v>100</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E5" s="3">
         <v>20</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E6" s="3">
+        <v>5</v>
+      </c>
+      <c r="F6" s="3">
+        <v>5</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E7" s="3">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3">
+        <v>5</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E9" s="3">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E10" s="3">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E11" s="3">
+        <v>5</v>
+      </c>
+      <c r="F11" s="3">
+        <v>10</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E12" s="3">
+        <v>5</v>
+      </c>
+      <c r="F12" s="3">
+        <v>5</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E13" s="3">
+        <v>10</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E14" s="3">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E15" s="3">
+        <v>10</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E16" s="3">
+        <v>60</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E17" s="3">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E18" s="3">
+        <v>10</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E19" s="3">
+        <v>10</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
+        <v>10</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E21" s="3">
         <v>5</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F21" s="3">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H21" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E22" s="3">
+        <v>10</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E23" s="3">
+        <v>10</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
+        <v>10</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E25" s="3">
+        <v>10</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E26" s="3">
+        <v>20</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E27" s="3">
+        <v>100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E28" s="3">
+        <v>10</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E29" s="3">
+        <v>10</v>
+      </c>
+      <c r="F29" s="3">
+        <v>2</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E31" s="3">
+        <v>15</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E32" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F32" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E33" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F33" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E34" s="3">
+        <v>5</v>
+      </c>
+      <c r="F34" s="3">
+        <v>5</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E35" s="3">
+        <v>5</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E36" s="3">
+        <v>10</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E37" s="3">
+        <v>10</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E38" s="3">
+        <v>5</v>
+      </c>
+      <c r="F38" s="3">
+        <v>2</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="H38" s="3" t="s">
         <v>366</v>
       </c>
     </row>
@@ -10111,7 +11047,7 @@
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="A38" sqref="A2:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/RD files/公共参数.xlsx
+++ b/RD files/公共参数.xlsx
@@ -10035,8 +10035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A38" sqref="A8:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
